--- a/www.eia.gov/electricity/monthly/xls/table_1_07_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_07_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>Table 1.7.A. Utility Scale Facility Net Generation from Natural Gas</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>3649</v>
+        <v>3463</v>
       </c>
       <c r="C7" s="10">
-        <v>4773</v>
+        <v>3927</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.23599999999999999</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="E7" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="10">
-        <v>3506</v>
+        <v>3307</v>
       </c>
       <c r="H7" s="10">
-        <v>4567</v>
+        <v>3735</v>
       </c>
       <c r="I7" s="10">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J7" s="10">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L7" s="10">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,37 +1430,37 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>1382</v>
+        <v>1438</v>
       </c>
       <c r="C8" s="13">
-        <v>1517</v>
+        <v>1460</v>
       </c>
       <c r="D8" s="14">
-        <v>-8.8999999999999996E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E8" s="13">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="F8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="13">
-        <v>1331</v>
+        <v>1373</v>
       </c>
       <c r="H8" s="13">
-        <v>1445</v>
+        <v>1387</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="C9" s="13">
-        <v>410</v>
+        <v>296</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.309</v>
+        <v>-0.34599999999999997</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="H9" s="13">
-        <v>354</v>
+        <v>251</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="13">
-        <v>4</v>
-      </c>
-      <c r="K9" s="13">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L9" s="13">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,37 +1506,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>1247</v>
+        <v>986</v>
       </c>
       <c r="C10" s="13">
-        <v>1884</v>
+        <v>1130</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.33800000000000002</v>
+        <v>-0.127</v>
       </c>
       <c r="E10" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="13">
-        <v>1196</v>
+        <v>935</v>
       </c>
       <c r="H10" s="13">
-        <v>1815</v>
+        <v>1066</v>
       </c>
       <c r="I10" s="13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J10" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="C11" s="13">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="D11" s="14">
-        <v>-0.31</v>
+        <v>-0.186</v>
       </c>
       <c r="E11" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="H11" s="13">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C12" s="13">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="D12" s="14">
-        <v>-0.158</v>
+        <v>-0.188</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="H12" s="13">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
@@ -1623,16 +1623,16 @@
         <v>18</v>
       </c>
       <c r="C13" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="13">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1658,37 +1658,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>12759</v>
+        <v>11909</v>
       </c>
       <c r="C14" s="10">
-        <v>13192</v>
+        <v>11896</v>
       </c>
       <c r="D14" s="11">
-        <v>-3.3000000000000002E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E14" s="10">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="F14" s="10">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G14" s="10">
-        <v>11821</v>
+        <v>10974</v>
       </c>
       <c r="H14" s="10">
-        <v>12082</v>
+        <v>10804</v>
       </c>
       <c r="I14" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J14" s="10">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K14" s="10">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L14" s="10">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,22 +1696,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>3685</v>
+        <v>2777</v>
       </c>
       <c r="C15" s="13">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="D15" s="14">
-        <v>0.158</v>
+        <v>-0.128</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13">
-        <v>3646</v>
+        <v>2730</v>
       </c>
       <c r="H15" s="13">
         <v>3130</v>
@@ -1734,37 +1734,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>3898</v>
+        <v>3669</v>
       </c>
       <c r="C16" s="13">
-        <v>4806</v>
+        <v>3918</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.189</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="F16" s="13">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G16" s="13">
-        <v>3084</v>
+        <v>2888</v>
       </c>
       <c r="H16" s="13">
-        <v>3866</v>
+        <v>2989</v>
       </c>
       <c r="I16" s="13">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J16" s="13">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K16" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L16" s="13">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,37 +1772,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>5177</v>
+        <v>5463</v>
       </c>
       <c r="C17" s="13">
-        <v>5204</v>
+        <v>4794</v>
       </c>
       <c r="D17" s="14">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>18</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
       </c>
       <c r="F17" s="13">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G17" s="13">
-        <v>5091</v>
+        <v>5356</v>
       </c>
       <c r="H17" s="13">
-        <v>5086</v>
+        <v>4685</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="13">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="L17" s="13">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>7688</v>
+        <v>8189</v>
       </c>
       <c r="C18" s="10">
-        <v>6737</v>
+        <v>7202</v>
       </c>
       <c r="D18" s="11">
-        <v>0.14099999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>3068</v>
+        <v>3301</v>
       </c>
       <c r="F18" s="10">
-        <v>2977</v>
+        <v>3300</v>
       </c>
       <c r="G18" s="10">
-        <v>4352</v>
+        <v>4618</v>
       </c>
       <c r="H18" s="10">
-        <v>3505</v>
+        <v>3630</v>
       </c>
       <c r="I18" s="10">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J18" s="10">
         <v>116</v>
       </c>
       <c r="K18" s="10">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" s="10">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,37 +1848,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>1401</v>
+        <v>1052</v>
       </c>
       <c r="C19" s="13">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="D19" s="14">
-        <v>0.59299999999999997</v>
+        <v>0.158</v>
       </c>
       <c r="E19" s="13">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F19" s="13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="13">
-        <v>1229</v>
+        <v>934</v>
       </c>
       <c r="H19" s="13">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="I19" s="13">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J19" s="13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="13">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,37 +1886,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>1511</v>
+        <v>1823</v>
       </c>
       <c r="C20" s="13">
-        <v>1128</v>
+        <v>1429</v>
       </c>
       <c r="D20" s="14">
-        <v>0.33900000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E20" s="13">
-        <v>1313</v>
+        <v>1492</v>
       </c>
       <c r="F20" s="13">
-        <v>846</v>
+        <v>1041</v>
       </c>
       <c r="G20" s="13">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="H20" s="13">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="I20" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="13">
         <v>16</v>
       </c>
       <c r="K20" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L20" s="13">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,37 +1924,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>2068</v>
+        <v>2146</v>
       </c>
       <c r="C21" s="13">
-        <v>1842</v>
+        <v>1690</v>
       </c>
       <c r="D21" s="14">
-        <v>0.123</v>
+        <v>0.27</v>
       </c>
       <c r="E21" s="13">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="F21" s="13">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="G21" s="13">
-        <v>1335</v>
+        <v>1502</v>
       </c>
       <c r="H21" s="13">
-        <v>1085</v>
+        <v>978</v>
       </c>
       <c r="I21" s="13">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="13">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K21" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L21" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,37 +1962,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>2045</v>
+        <v>2301</v>
       </c>
       <c r="C22" s="13">
-        <v>1884</v>
+        <v>2168</v>
       </c>
       <c r="D22" s="14">
-        <v>8.5000000000000006E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="F22" s="13">
-        <v>505</v>
+        <v>654</v>
       </c>
       <c r="G22" s="13">
-        <v>1573</v>
+        <v>1855</v>
       </c>
       <c r="H22" s="13">
-        <v>1363</v>
+        <v>1494</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K22" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,25 +2000,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>662</v>
+        <v>867</v>
       </c>
       <c r="C23" s="13">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.34</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="E23" s="13">
-        <v>552</v>
+        <v>775</v>
       </c>
       <c r="F23" s="13">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="G23" s="13">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H23" s="13">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>18</v>
@@ -2027,10 +2027,10 @@
         <v>5</v>
       </c>
       <c r="K23" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L23" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>1257</v>
+        <v>1197</v>
       </c>
       <c r="C24" s="10">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="D24" s="11">
-        <v>0.37</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="E24" s="10">
-        <v>1095</v>
+        <v>1030</v>
       </c>
       <c r="F24" s="10">
-        <v>826</v>
+        <v>757</v>
       </c>
       <c r="G24" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="10">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I24" s="10">
         <v>23</v>
       </c>
       <c r="J24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K24" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L24" s="10">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,19 +2076,19 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C25" s="13">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D25" s="14">
-        <v>0.245</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E25" s="13">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F25" s="13">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>18</v>
@@ -2100,13 +2100,13 @@
         <v>18</v>
       </c>
       <c r="J25" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L25" s="13">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C26" s="13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D26" s="14">
-        <v>2.351</v>
+        <v>1.851</v>
       </c>
       <c r="E26" s="13">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F26" s="13">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2152,25 +2152,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="C27" s="13">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="D27" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E27" s="13">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="F27" s="13">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G27" s="13">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H27" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>18</v>
@@ -2182,7 +2182,7 @@
         <v>18</v>
       </c>
       <c r="L27" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,31 +2190,31 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C28" s="13">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="D28" s="14">
-        <v>0.80400000000000005</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E28" s="13">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="F28" s="13">
-        <v>155</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>18</v>
+        <v>193</v>
+      </c>
+      <c r="G28" s="13">
+        <v>36</v>
       </c>
       <c r="H28" s="13">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I28" s="13">
         <v>7</v>
       </c>
       <c r="J28" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>18</v>
@@ -2228,19 +2228,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C29" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" s="14">
-        <v>4.4290000000000003</v>
+        <v>4.4210000000000003</v>
       </c>
       <c r="E29" s="13">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F29" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="13">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="13">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="E30" s="13">
         <v>50</v>
       </c>
-      <c r="D30" s="14">
-        <v>0.161</v>
-      </c>
-      <c r="E30" s="13">
-        <v>56</v>
-      </c>
       <c r="F30" s="13">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="13">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C31" s="13">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D31" s="14">
-        <v>0.67500000000000004</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E31" s="13">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F31" s="13">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>24367</v>
+        <v>22262</v>
       </c>
       <c r="C32" s="10">
-        <v>23956</v>
+        <v>23537</v>
       </c>
       <c r="D32" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>19861</v>
+        <v>18803</v>
       </c>
       <c r="F32" s="10">
-        <v>19818</v>
+        <v>19116</v>
       </c>
       <c r="G32" s="10">
-        <v>4087</v>
+        <v>3045</v>
       </c>
       <c r="H32" s="10">
-        <v>3810</v>
+        <v>4072</v>
       </c>
       <c r="I32" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J32" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K32" s="10">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L32" s="10">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,25 +2380,25 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>760</v>
+        <v>531</v>
       </c>
       <c r="C33" s="13">
-        <v>464</v>
+        <v>363</v>
       </c>
       <c r="D33" s="14">
-        <v>0.63600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="13">
-        <v>658</v>
+        <v>443</v>
       </c>
       <c r="H33" s="13">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L33" s="13">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,25 +2456,25 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>13194</v>
+        <v>10406</v>
       </c>
       <c r="C35" s="13">
-        <v>13226</v>
+        <v>12157</v>
       </c>
       <c r="D35" s="14">
-        <v>-2E-3</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E35" s="13">
-        <v>12282</v>
+        <v>9626</v>
       </c>
       <c r="F35" s="13">
-        <v>12181</v>
+        <v>11035</v>
       </c>
       <c r="G35" s="13">
-        <v>802</v>
+        <v>659</v>
       </c>
       <c r="H35" s="13">
-        <v>920</v>
+        <v>1002</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
@@ -2483,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="K35" s="13">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L35" s="13">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,25 +2494,25 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>3673</v>
+        <v>3509</v>
       </c>
       <c r="C36" s="13">
-        <v>4190</v>
+        <v>3980</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.123</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="E36" s="13">
-        <v>3028</v>
+        <v>2991</v>
       </c>
       <c r="F36" s="13">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="G36" s="13">
-        <v>582</v>
+        <v>466</v>
       </c>
       <c r="H36" s="13">
-        <v>1187</v>
+        <v>982</v>
       </c>
       <c r="I36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L36" s="13">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>390</v>
+        <v>96</v>
       </c>
       <c r="C37" s="13">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="D37" s="14">
-        <v>0.13200000000000001</v>
+        <v>-0.74199999999999999</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,22 +2547,22 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="H37" s="13">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="13">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,25 +2570,25 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>2380</v>
+        <v>2970</v>
       </c>
       <c r="C38" s="13">
-        <v>2540</v>
+        <v>2738</v>
       </c>
       <c r="D38" s="14">
-        <v>-6.3E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>1869</v>
+        <v>2743</v>
       </c>
       <c r="F38" s="13">
-        <v>2273</v>
+        <v>2605</v>
       </c>
       <c r="G38" s="13">
-        <v>493</v>
+        <v>211</v>
       </c>
       <c r="H38" s="13">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="I38" s="13">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>18</v>
       </c>
       <c r="L38" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,37 +2608,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>1398</v>
+        <v>1562</v>
       </c>
       <c r="C39" s="13">
-        <v>1520</v>
+        <v>1648</v>
       </c>
       <c r="D39" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>1236</v>
+        <v>1063</v>
       </c>
       <c r="F39" s="13">
-        <v>1442</v>
+        <v>1449</v>
       </c>
       <c r="G39" s="13">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="H39" s="13">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K39" s="13">
-        <v>8</v>
+        <v>0.16</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L39" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,37 +2646,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>2373</v>
+        <v>3105</v>
       </c>
       <c r="C40" s="13">
-        <v>1511</v>
+        <v>2199</v>
       </c>
       <c r="D40" s="14">
-        <v>0.56999999999999995</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="E40" s="13">
-        <v>1434</v>
+        <v>2366</v>
       </c>
       <c r="F40" s="13">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="G40" s="13">
-        <v>892</v>
+        <v>692</v>
       </c>
       <c r="H40" s="13">
-        <v>499</v>
+        <v>1072</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="K40" s="13">
         <v>46</v>
       </c>
       <c r="L40" s="13">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,25 +2684,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="C41" s="13">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="D41" s="14">
-        <v>0.24199999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="13">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="H41" s="13">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L41" s="13">
         <v>0</v>
@@ -2722,37 +2722,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>9460</v>
+        <v>8236</v>
       </c>
       <c r="C42" s="10">
-        <v>9017</v>
+        <v>9243</v>
       </c>
       <c r="D42" s="11">
-        <v>4.9000000000000002E-2</v>
+        <v>-0.109</v>
       </c>
       <c r="E42" s="10">
-        <v>6152</v>
+        <v>5012</v>
       </c>
       <c r="F42" s="10">
-        <v>5435</v>
+        <v>5777</v>
       </c>
       <c r="G42" s="10">
-        <v>3136</v>
+        <v>3040</v>
       </c>
       <c r="H42" s="10">
-        <v>3407</v>
+        <v>3297</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K42" s="10">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L42" s="10">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>4416</v>
+        <v>4311</v>
       </c>
       <c r="C43" s="13">
-        <v>4439</v>
+        <v>4393</v>
       </c>
       <c r="D43" s="14">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="F43" s="13">
-        <v>1103</v>
+        <v>1374</v>
       </c>
       <c r="G43" s="13">
-        <v>3131</v>
+        <v>3021</v>
       </c>
       <c r="H43" s="13">
-        <v>3255</v>
+        <v>2941</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L43" s="13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,25 +2798,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>600</v>
+        <v>479</v>
       </c>
       <c r="C44" s="13">
-        <v>781</v>
+        <v>635</v>
       </c>
       <c r="D44" s="14">
-        <v>-0.23200000000000001</v>
+        <v>-0.246</v>
       </c>
       <c r="E44" s="13">
-        <v>580</v>
+        <v>442</v>
       </c>
       <c r="F44" s="13">
-        <v>676</v>
+        <v>611</v>
       </c>
       <c r="G44" s="13">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H44" s="13">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="L44" s="13">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,34 +2836,34 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>3622</v>
+        <v>2918</v>
       </c>
       <c r="C45" s="13">
-        <v>3152</v>
+        <v>3495</v>
       </c>
       <c r="D45" s="14">
-        <v>0.14899999999999999</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="E45" s="13">
-        <v>3585</v>
+        <v>2882</v>
       </c>
       <c r="F45" s="13">
-        <v>3041</v>
+        <v>3103</v>
       </c>
       <c r="G45" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="13">
+        <v>356</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="13">
         <v>1</v>
       </c>
-      <c r="H45" s="13">
-        <v>75</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="13">
-        <v>0.47</v>
-      </c>
       <c r="K45" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" s="13">
         <v>35</v>
@@ -2874,19 +2874,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>822</v>
+        <v>528</v>
       </c>
       <c r="C46" s="13">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="D46" s="14">
-        <v>0.27400000000000002</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="E46" s="13">
-        <v>778</v>
+        <v>475</v>
       </c>
       <c r="F46" s="13">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2898,10 +2898,10 @@
         <v>18</v>
       </c>
       <c r="J46" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K46" s="13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L46" s="13">
         <v>21</v>
@@ -2912,37 +2912,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>25059</v>
+        <v>24309</v>
       </c>
       <c r="C47" s="10">
-        <v>27353</v>
+        <v>25711</v>
       </c>
       <c r="D47" s="11">
-        <v>-8.4000000000000005E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>7324</v>
+        <v>6997</v>
       </c>
       <c r="F47" s="10">
-        <v>7876</v>
+        <v>7419</v>
       </c>
       <c r="G47" s="10">
-        <v>12094</v>
+        <v>11495</v>
       </c>
       <c r="H47" s="10">
-        <v>14197</v>
+        <v>12765</v>
       </c>
       <c r="I47" s="10">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J47" s="10">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K47" s="10">
-        <v>5559</v>
+        <v>5745</v>
       </c>
       <c r="L47" s="10">
-        <v>5220</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,37 +2950,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>1239</v>
+        <v>1522</v>
       </c>
       <c r="C48" s="13">
-        <v>547</v>
+        <v>721</v>
       </c>
       <c r="D48" s="14">
-        <v>1.264</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E48" s="13">
-        <v>533</v>
+        <v>652</v>
       </c>
       <c r="F48" s="13">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="G48" s="13">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="H48" s="13">
-        <v>367</v>
+        <v>452</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="13">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K48" s="13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L48" s="13">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,37 +2988,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>4823</v>
+        <v>4743</v>
       </c>
       <c r="C49" s="13">
-        <v>5726</v>
+        <v>5804</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.158</v>
+        <v>-0.183</v>
       </c>
       <c r="E49" s="13">
-        <v>2370</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="13">
-        <v>3102</v>
+        <v>3077</v>
       </c>
       <c r="G49" s="13">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="H49" s="13">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K49" s="13">
-        <v>2150</v>
+        <v>2183</v>
       </c>
       <c r="L49" s="13">
-        <v>2145</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,25 +3026,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>2327</v>
+        <v>2825</v>
       </c>
       <c r="C50" s="13">
-        <v>2209</v>
+        <v>2827</v>
       </c>
       <c r="D50" s="14">
-        <v>5.2999999999999999E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="E50" s="13">
-        <v>1464</v>
+        <v>1807</v>
       </c>
       <c r="F50" s="13">
-        <v>1461</v>
+        <v>1867</v>
       </c>
       <c r="G50" s="13">
-        <v>847</v>
+        <v>1003</v>
       </c>
       <c r="H50" s="13">
-        <v>732</v>
+        <v>939</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>18</v>
@@ -3056,7 +3056,7 @@
         <v>18</v>
       </c>
       <c r="L50" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,37 +3064,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>16670</v>
+        <v>15219</v>
       </c>
       <c r="C51" s="13">
-        <v>18870</v>
+        <v>16358</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.11700000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>2957</v>
+        <v>2338</v>
       </c>
       <c r="F51" s="13">
-        <v>3158</v>
+        <v>2233</v>
       </c>
       <c r="G51" s="13">
-        <v>10274</v>
+        <v>9300</v>
       </c>
       <c r="H51" s="13">
-        <v>12633</v>
+        <v>10917</v>
       </c>
       <c r="I51" s="13">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J51" s="13">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K51" s="13">
-        <v>3371</v>
+        <v>3523</v>
       </c>
       <c r="L51" s="13">
-        <v>3034</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,37 +3102,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>7338</v>
+        <v>5629</v>
       </c>
       <c r="C52" s="10">
-        <v>8781</v>
+        <v>7695</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.16400000000000001</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="E52" s="10">
-        <v>4924</v>
+        <v>4312</v>
       </c>
       <c r="F52" s="10">
-        <v>6504</v>
+        <v>5665</v>
       </c>
       <c r="G52" s="10">
-        <v>2254</v>
+        <v>1168</v>
       </c>
       <c r="H52" s="10">
-        <v>2121</v>
+        <v>1876</v>
       </c>
       <c r="I52" s="10">
+        <v>32</v>
+      </c>
+      <c r="J52" s="10">
         <v>33</v>
       </c>
-      <c r="J52" s="10">
-        <v>37</v>
-      </c>
       <c r="K52" s="10">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L52" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,31 +3140,31 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>2750</v>
+        <v>1463</v>
       </c>
       <c r="C53" s="13">
-        <v>3359</v>
+        <v>2355</v>
       </c>
       <c r="D53" s="14">
-        <v>-0.18099999999999999</v>
+        <v>-0.379</v>
       </c>
       <c r="E53" s="13">
-        <v>1274</v>
+        <v>839</v>
       </c>
       <c r="F53" s="13">
-        <v>2056</v>
+        <v>1367</v>
       </c>
       <c r="G53" s="13">
-        <v>1465</v>
+        <v>614</v>
       </c>
       <c r="H53" s="13">
-        <v>1290</v>
+        <v>979</v>
       </c>
       <c r="I53" s="13">
         <v>10</v>
       </c>
       <c r="J53" s="13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K53" s="13">
         <v>0</v>
@@ -3178,31 +3178,31 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="C54" s="13">
-        <v>1069</v>
+        <v>1311</v>
       </c>
       <c r="D54" s="14">
-        <v>-0.29399999999999998</v>
+        <v>-0.44900000000000001</v>
       </c>
       <c r="E54" s="13">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="F54" s="13">
-        <v>891</v>
+        <v>1149</v>
       </c>
       <c r="G54" s="13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H54" s="13">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="I54" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" s="13">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>18</v>
@@ -3216,37 +3216,37 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C55" s="13">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D55" s="14">
-        <v>-0.45700000000000002</v>
+        <v>-0.63400000000000001</v>
       </c>
       <c r="E55" s="13">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F55" s="13">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G55" s="13">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="H55" s="13">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L55" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="13">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>18</v>
@@ -3266,13 +3266,13 @@
         <v>18</v>
       </c>
       <c r="F56" s="13">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H56" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,37 +3292,37 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>2104</v>
+        <v>2176</v>
       </c>
       <c r="C57" s="13">
-        <v>2536</v>
+        <v>2170</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.17</v>
+        <v>2E-3</v>
       </c>
       <c r="E57" s="13">
-        <v>1894</v>
+        <v>1967</v>
       </c>
       <c r="F57" s="13">
-        <v>2313</v>
+        <v>1957</v>
       </c>
       <c r="G57" s="13">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H57" s="13">
-        <v>190</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>18</v>
+        <v>185</v>
+      </c>
+      <c r="I57" s="13">
+        <v>6</v>
       </c>
       <c r="J57" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K57" s="13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L57" s="13">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,25 +3330,25 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>853</v>
+        <v>566</v>
       </c>
       <c r="C58" s="13">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D58" s="14">
-        <v>0.19500000000000001</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="E58" s="13">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="F58" s="13">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="G58" s="13">
-        <v>351</v>
+        <v>158</v>
       </c>
       <c r="H58" s="13">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="I58" s="13">
         <v>9</v>
@@ -3356,11 +3356,11 @@
       <c r="J58" s="13">
         <v>9</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>18</v>
+      <c r="K58" s="13">
+        <v>0</v>
       </c>
       <c r="L58" s="13">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3368,37 +3368,37 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>586</v>
+        <v>488</v>
       </c>
       <c r="C59" s="13">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="D59" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>525</v>
+        <v>436</v>
       </c>
       <c r="F59" s="13">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="13">
-        <v>8</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I59" s="13">
+        <v>6</v>
       </c>
       <c r="J59" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K59" s="13">
+        <v>34</v>
+      </c>
+      <c r="L59" s="13">
         <v>37</v>
-      </c>
-      <c r="L59" s="13">
-        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,19 +3406,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" s="13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="14">
-        <v>-7.8E-2</v>
+        <v>-0.111</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>18</v>
@@ -3436,7 +3436,7 @@
         <v>54</v>
       </c>
       <c r="L60" s="13">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,37 +3444,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>10896</v>
+        <v>9215</v>
       </c>
       <c r="C61" s="10">
-        <v>15076</v>
+        <v>11885</v>
       </c>
       <c r="D61" s="11">
-        <v>-0.27700000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>4195</v>
+        <v>3446</v>
       </c>
       <c r="F61" s="10">
-        <v>5024</v>
+        <v>4439</v>
       </c>
       <c r="G61" s="10">
-        <v>5675</v>
+        <v>4709</v>
       </c>
       <c r="H61" s="10">
-        <v>8755</v>
+        <v>6277</v>
       </c>
       <c r="I61" s="10">
         <v>151</v>
       </c>
       <c r="J61" s="10">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="K61" s="10">
-        <v>874</v>
+        <v>909</v>
       </c>
       <c r="L61" s="10">
-        <v>1109</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,37 +3482,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>9097</v>
+        <v>7494</v>
       </c>
       <c r="C62" s="13">
-        <v>11947</v>
+        <v>8830</v>
       </c>
       <c r="D62" s="14">
-        <v>-0.23899999999999999</v>
+        <v>-0.151</v>
       </c>
       <c r="E62" s="13">
-        <v>3105</v>
+        <v>2348</v>
       </c>
       <c r="F62" s="13">
-        <v>3468</v>
+        <v>2924</v>
       </c>
       <c r="G62" s="13">
-        <v>4983</v>
+        <v>4105</v>
       </c>
       <c r="H62" s="13">
-        <v>7200</v>
+        <v>4759</v>
       </c>
       <c r="I62" s="13">
         <v>145</v>
       </c>
       <c r="J62" s="13">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="K62" s="13">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="L62" s="13">
-        <v>1099</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>1142</v>
+        <v>1126</v>
       </c>
       <c r="C63" s="13">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.28599999999999998</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="E63" s="13">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="F63" s="13">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="G63" s="13">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H63" s="13">
-        <v>910</v>
+        <v>954</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>18</v>
@@ -3558,25 +3558,25 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="C64" s="13">
-        <v>1530</v>
+        <v>1435</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.57099999999999995</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="E64" s="13">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="F64" s="13">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="G64" s="13">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="H64" s="13">
-        <v>646</v>
+        <v>564</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>18</v>
@@ -3585,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="K64" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L64" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,19 +3596,19 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C65" s="10">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.20300000000000001</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="E65" s="10">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F65" s="10">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="L65" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,19 +3634,19 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C66" s="13">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.20300000000000001</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="E66" s="13">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F66" s="13">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>18</v>
       </c>
       <c r="L66" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>102635</v>
+        <v>94586</v>
       </c>
       <c r="C68" s="10">
-        <v>110005</v>
+        <v>102236</v>
       </c>
       <c r="D68" s="11">
-        <v>-6.7000000000000004E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>47527</v>
+        <v>43773</v>
       </c>
       <c r="F68" s="10">
-        <v>49533</v>
+        <v>47590</v>
       </c>
       <c r="G68" s="10">
-        <v>47008</v>
+        <v>42440</v>
       </c>
       <c r="H68" s="10">
-        <v>52489</v>
+        <v>46542</v>
       </c>
       <c r="I68" s="10">
+        <v>591</v>
+      </c>
+      <c r="J68" s="10">
         <v>583</v>
       </c>
-      <c r="J68" s="10">
-        <v>643</v>
-      </c>
       <c r="K68" s="10">
-        <v>7517</v>
+        <v>7782</v>
       </c>
       <c r="L68" s="10">
-        <v>7340</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
